--- a/results_exact/22_transbordo_porto.xlsx
+++ b/results_exact/22_transbordo_porto.xlsx
@@ -444,29 +444,29 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FIGUEIRÓPOLIS, TO, Brazil</t>
+          <t>IPAMERI,GO, Brazil</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -476,20 +476,20 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>805083.9839999999</v>
+        <v>178404.652</v>
       </c>
       <c r="E2" t="n">
-        <v>183058.3067293109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IPAMERI,GO, Brazil</t>
+          <t>FIGUEIRÓPOLIS, TO, Brazil</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>178404.652</v>
+        <v>465403.44</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1417903.813192727</v>
       </c>
     </row>
     <row r="4">
@@ -511,48 +511,48 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>325779.0719999994</v>
       </c>
       <c r="D4" t="n">
-        <v>729132.0560000001</v>
+        <v>192344.7571927269</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>211008.2268072735</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RIO VERDE, GO, Brazil</t>
+          <t>ANÁPOLIS, GO, Brazil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>147374.419999999</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2401484.706729311</v>
+        <v>294755.512</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>282345.1332706891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SÃO SIMÃO, GO, Brazil</t>
+          <t>RIO VERDE, GO, Brazil</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>736888.7800000001</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2831204.26</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>94696</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -580,17 +580,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ANÁPOLIS, GO, Brazil</t>
+          <t>SÃO SIMÃO, GO, Brazil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>294755.512</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>736888.78</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
@@ -645,15 +645,15 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>137355378.51024</v>
+        <v>14994911.0006</v>
       </c>
       <c r="D2" t="n">
-        <v>31231577.71108773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>30437617.67772001</v>
+        <v>51664435.8744</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155515690.2309783</v>
       </c>
     </row>
     <row r="4">
@@ -670,27 +670,27 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>47997030.67775992</v>
       </c>
       <c r="C4" t="n">
-        <v>124397220.07416</v>
+        <v>25189469.40195952</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>24896860.6809902</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>25143549.79619983</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>280805606.7578584</v>
+        <v>36322721.74376</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>48170903.18731228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -698,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>68059047.72080001</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>265623583.6732</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>11072803.28</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -723,13 +723,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>50288237.90232001</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>60159599.9992</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -757,22 +757,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
@@ -784,15 +784,15 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>21836936965.2192</v>
+        <v>3328602635.1552</v>
       </c>
       <c r="D2" t="n">
-        <v>5045517120.480621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4946632922.190081</v>
+        <v>12827612504.484</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>38458939448.27688</v>
       </c>
     </row>
     <row r="4">
@@ -809,27 +809,27 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>12887109889.94302</v>
       </c>
       <c r="C4" t="n">
-        <v>21777278769.3744</v>
+        <v>6568711946.356802</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>6302267113.343562</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5530549334.223962</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>52558293920.30103</v>
+        <v>9313616874.408241</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>10562144622.8239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>13158070277.875</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>61963028633.295</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2129234825.2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9313616874.408241</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>13158070277.875</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1374733769.006294</v>
+        <v>1218716706.325244</v>
       </c>
       <c r="B2" t="n">
-        <v>159209705399636.9</v>
+        <v>148105097172688.7</v>
       </c>
     </row>
   </sheetData>
